--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4026D6F0-B8E8-4F8B-B27A-D00D959A852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36F75C9-5896-472F-8445-FBB27ECC2475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29070" yWindow="-15930" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-21288" yWindow="324" windowWidth="16320" windowHeight="11580" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
-    <sheet name="non item" sheetId="1" r:id="rId1"/>
-    <sheet name="item" sheetId="2" r:id="rId2"/>
+    <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
+    <sheet name="preparations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물고기 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grade_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물고기 등급 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기 등급 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지역 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출항 비용(won)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출항 시간(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출항 가능 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,18 +201,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 지불 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 지불 금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚싯대 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯대 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,22 +269,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_rod_grade_percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚싯대 등급 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯대 등급 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚싯대 등급 확률(장점 부각 확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_rod_durability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚싯줄 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯줄 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>릴 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>릴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>릴 등급 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reel_grade_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미끼 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_bait_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,10 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미끼 등급 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미끼 등급 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,18 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_bait_class_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_class_percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_hook</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,10 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시 바늘 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시 바늘 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +458,210 @@
   </si>
   <si>
     <t>낚시 바늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparations_upgrade_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_bait_grade_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_bait_grade_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_rod_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 지불 방식(게임 내 돈, 캐시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_rod_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대 종류 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_rod_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대 종류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훅킹 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압 성공률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hooking_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_bait_grade_appearance_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearance_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도(정상 온도 범위: 10~20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_direction_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍향 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대 등급 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯줄 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 등급 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미끼 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미끼 등급 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 바늘 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 등급 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_direction_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍향 이름(8방위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍속(m/s, 강풍 기준: 14m/s 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간(0~23시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 비용(won, 장소의 거리에 따라 출항비용이 달라진다. 멀수록 비쌈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 시간(m, 장소의 거리에 따라 출항시간이 달라진다. 멀수록 오래걸림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 id(pk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 id(pk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기가 여러 장소에 있을 수 있고, 먼 장소일수록 희귀한 물고기도 있으며 물고기 씨알도 굵어지기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수간만차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -629,13 +749,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +789,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,21 +1132,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="29.296875" customWidth="1"/>
+    <col min="1" max="1" width="21.8984375" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1010,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1018,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1029,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1040,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1051,185 +1210,365 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="5">
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="5">
-        <v>6</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>37</v>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1241,25 +1580,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="2" max="2" width="49.59765625" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1278,10 +1617,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1289,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1300,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1311,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1322,18 +1661,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1352,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -1363,18 +1702,18 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -1393,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -1404,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -1415,10 +1754,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -1426,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -1437,144 +1776,150 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="9">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
+      <c r="A22" s="9">
+        <v>7</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="9">
+        <v>2</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>79</v>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -1593,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -1604,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -1615,10 +1960,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -1626,233 +1971,362 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
+      <c r="A42" s="9">
         <v>5</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="9">
+        <v>6</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="3">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>95</v>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
         <v>3</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>125</v>
+      <c r="B49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="3">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="3">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="3">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="3">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="9">
+        <v>4</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="9">
+        <v>5</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
-        <v>1</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="3">
-        <v>2</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="3">
-        <v>1</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="3">
-        <v>2</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="3">
-        <v>3</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="3">
-        <v>2</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="3">
-        <v>3</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>123</v>
+      <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36F75C9-5896-472F-8445-FBB27ECC2475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1D7E7-BCEC-41E0-ACFC-564E3E4F7F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21288" yWindow="324" windowWidth="16320" windowHeight="11580" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="167">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,10 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preparations_upgrade_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_bait_grade_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,14 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지역 id(pk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 id(pk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기가 여러 장소에 있을 수 있고, 먼 장소일수록 희귀한 물고기도 있으며 물고기 씨알도 굵어지기 때문에</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,7 +649,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조수간만차</t>
+    <t>조수간만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썰물:0, 밀물: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수간만 시간(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자(1~7)(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 id(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 id(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조류 세기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1169,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1213,7 +1253,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1240,7 +1280,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -1289,7 +1329,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -1333,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -1344,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -1365,10 +1405,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="C25" s="16"/>
     </row>
@@ -1391,7 +1431,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -1402,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -1445,7 +1485,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -1464,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -1475,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -1486,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -1497,10 +1537,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -1508,15 +1548,15 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -1535,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -1546,18 +1586,18 @@
         <v>2</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>155</v>
+      <c r="A46" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -1569,6 +1609,50 @@
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1582,13 +1666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
     <col min="2" max="2" width="49.59765625" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
   </cols>
@@ -1620,7 +1704,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1642,7 +1726,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1735,7 +1819,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -1787,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -1798,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -1809,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -1822,10 +1906,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -1845,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -1856,10 +1940,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -1889,7 +1973,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -1941,7 +2025,7 @@
         <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -1982,10 +2066,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -1993,10 +2077,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -2026,7 +2110,7 @@
         <v>71</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -2048,7 +2132,7 @@
         <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -2100,7 +2184,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -2152,7 +2236,7 @@
         <v>84</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -2171,10 +2255,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -2201,10 +2285,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -2212,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>95</v>
@@ -2223,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>96</v>
@@ -2256,7 +2340,7 @@
         <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -2286,10 +2370,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -2297,15 +2381,15 @@
         <v>5</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -2319,9 +2403,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1D7E7-BCEC-41E0-ACFC-564E3E4F7F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCA8878-3111-468B-8770-8FDFDAD8F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-28068" yWindow="624" windowWidth="32172" windowHeight="15528" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="184">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,7 +701,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드 부품 id</t>
+    <t>upgrade_item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 조각 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 조각 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_satisfying_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 조각 개수(예. 3개가 있어야 채비 업그레이드를 할 수 있다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bororong_no_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료, 최대 이동거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_price_by_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 원산지 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간(0~23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어종별 시세(경매용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,25 +1240,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="2" width="22.296875" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1212,7 +1280,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1223,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1234,7 +1302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1245,7 +1313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1256,12 +1324,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1283,7 +1351,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1294,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -1305,12 +1373,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -1332,7 +1400,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -1343,7 +1411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -1354,7 +1422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -1365,7 +1433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1376,7 +1444,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -1387,7 +1455,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>7</v>
       </c>
@@ -1398,12 +1466,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="11"/>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>150</v>
       </c>
@@ -1412,7 +1480,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -1434,7 +1502,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -1445,7 +1513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -1456,7 +1524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1467,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>5</v>
       </c>
@@ -1478,17 +1546,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -1510,7 +1578,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1521,7 +1589,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>3</v>
       </c>
@@ -1532,7 +1600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -1543,7 +1611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -1554,12 +1622,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -1581,7 +1649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -1592,7 +1660,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>152</v>
       </c>
@@ -1600,7 +1668,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -1622,7 +1690,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -1633,7 +1701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -1644,7 +1712,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -1653,6 +1721,69 @@
       </c>
       <c r="C51" s="3" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1664,20 +1795,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="49.59765625" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1707,7 +1838,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1718,7 +1849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1729,7 +1860,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1740,7 +1871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1751,7 +1882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1759,7 +1890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1781,7 +1912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1792,7 +1923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1800,7 +1931,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1822,7 +1953,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -1833,7 +1964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1844,7 +1975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -1855,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -1866,7 +1997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>6</v>
       </c>
@@ -1877,7 +2008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>7</v>
       </c>
@@ -1888,7 +2019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>8</v>
       </c>
@@ -1899,12 +2030,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -1913,7 +2044,7 @@
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>1</v>
       </c>
@@ -1935,7 +2066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>2</v>
       </c>
@@ -1946,7 +2077,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1954,7 +2085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -1976,7 +2107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -1987,7 +2118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>3</v>
       </c>
@@ -1998,7 +2129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2006,7 +2137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -2028,7 +2159,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -2039,7 +2170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>3</v>
       </c>
@@ -2050,7 +2181,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -2061,7 +2192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>5</v>
       </c>
@@ -2072,7 +2203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>6</v>
       </c>
@@ -2083,7 +2214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -2091,7 +2222,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -2113,7 +2244,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -2124,7 +2255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -2135,7 +2266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>4</v>
       </c>
@@ -2146,7 +2277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>5</v>
       </c>
@@ -2157,7 +2288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -2165,7 +2296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -2187,7 +2318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -2198,7 +2329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -2209,7 +2340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
@@ -2217,7 +2348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -2239,7 +2370,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -2250,7 +2381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>3</v>
       </c>
@@ -2261,7 +2392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -2269,7 +2400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -2291,7 +2422,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -2302,7 +2433,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -2313,7 +2444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
@@ -2321,7 +2452,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>1</v>
       </c>
@@ -2343,7 +2474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -2354,7 +2485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>3</v>
       </c>
@@ -2365,7 +2496,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>4</v>
       </c>
@@ -2376,7 +2507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>5</v>
       </c>
@@ -2387,12 +2518,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2411,7 +2542,78 @@
         <v>165</v>
       </c>
       <c r="C81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
         <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>1</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>2</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCA8878-3111-468B-8770-8FDFDAD8F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398BF9DE-0240-495E-B3F5-A5DACA771DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28068" yWindow="624" windowWidth="32172" windowHeight="15528" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-41292" yWindow="2424" windowWidth="24132" windowHeight="11616" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="199">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_rod_hardness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_rod_max_upgrade_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_line_thickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_line_max_upgrade_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_hook_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시 바늘 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,10 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 지불 방식(게임 내 돈, 캐시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_rod_type_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,6 +754,82 @@
   </si>
   <si>
     <t>어종별 시세(경매용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduced_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 감소량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_weight_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 추 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 추 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_weight_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 추 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_method_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 지불 방식(게임 내 돈, 캐시) id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_method_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불방식 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불방식 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1277,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1321,7 +1381,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1348,7 +1408,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1457,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,7 +1512,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1467,323 +1527,334 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="5">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="16"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>161</v>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>5</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>143</v>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>5</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>127</v>
+      <c r="B40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>130</v>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" t="s">
-        <v>153</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>160</v>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>4</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" t="s">
-        <v>183</v>
+      <c r="B52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>180</v>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
+        <v>2</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>4</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>182</v>
+      <c r="B59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1795,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1813,7 +1884,7 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1835,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1854,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1887,7 +1958,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1928,7 +1999,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1950,7 +2021,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1961,7 +2032,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,10 +2040,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1991,10 +2062,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2002,10 +2073,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2013,10 +2084,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2024,10 +2095,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2037,10 +2108,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -2060,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2071,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2082,7 +2153,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,10 +2183,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2123,18 +2194,18 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2153,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2164,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2175,10 +2246,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2186,10 +2257,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2197,10 +2268,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2208,18 +2279,18 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2238,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2249,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2260,10 +2331,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2271,10 +2342,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2282,18 +2353,18 @@
         <v>5</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2312,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2323,10 +2394,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2334,18 +2405,18 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2375,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2386,18 +2457,18 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2416,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2427,10 +2498,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2438,18 +2509,18 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2468,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2479,10 +2550,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2490,10 +2561,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2501,10 +2572,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2512,15 +2583,15 @@
         <v>5</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2535,41 +2606,41 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="3">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>2</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C83" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2588,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2599,10 +2670,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2610,10 +2681,103 @@
         <v>3</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>2</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>1</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>2</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398BF9DE-0240-495E-B3F5-A5DACA771DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2AD7AB-8951-4F3D-8646-906F0B6C13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41292" yWindow="2424" windowWidth="24132" windowHeight="11616" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-30828" yWindow="-1872" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="197">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level_to_sail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기 등급 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚싯줄 두께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯줄 최대 업그레이드 수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>릴 권사량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reel_grade_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,14 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시 바늘 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 바늘 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reel_grade_max_upgrade_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_bait_grade_appearance_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appearance_probability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드 부품 조각 개수(예. 3개가 있어야 채비 업그레이드를 할 수 있다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bororong_no_24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,10 +753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시 추 무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_weight_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,14 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hardness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,6 +790,38 @@
   </si>
   <si>
     <t>지불방식 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시줄 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 권사량(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced_appearance_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 바늘 이름(1호, 2호, 3호..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 시 필요 부품 조각 개수(예. 3개가 있어야 채비 업그레이드를 할 수 있다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 추 무게(g)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1337,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1416,10 +1408,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1427,15 +1419,15 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1454,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1465,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1479,7 +1471,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1490,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,18 +1504,18 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>7</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>21</v>
+      <c r="B23" t="s">
+        <v>189</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,10 +1536,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C26" s="16"/>
     </row>
@@ -1567,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1581,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1624,7 +1616,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1643,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1654,10 +1646,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1665,10 +1657,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1676,10 +1668,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1687,15 +1679,15 @@
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1714,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1725,18 +1717,18 @@
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1755,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1766,10 +1758,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1777,10 +1769,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1788,18 +1780,18 @@
         <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1818,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1832,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,10 +1832,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1851,10 +1843,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1866,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1881,10 +1873,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,10 +1906,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,18 +1939,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1977,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1988,18 +1980,18 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2018,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2040,10 +2032,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2051,10 +2043,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2062,10 +2054,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2073,10 +2065,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2084,10 +2076,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2095,10 +2087,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2108,10 +2100,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -2131,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2142,18 +2134,18 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2172,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2183,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2194,18 +2186,18 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2224,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2235,10 +2227,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2249,7 +2241,7 @@
         <v>191</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2257,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2268,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2279,18 +2271,18 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2309,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2320,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,10 +2323,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,10 +2334,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2353,18 +2345,18 @@
         <v>5</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2383,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2394,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2405,18 +2397,18 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2435,10 +2427,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2446,10 +2438,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2457,18 +2449,18 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2487,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2498,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2509,18 +2501,18 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2539,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2550,21 +2542,21 @@
         <v>2</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="9">
         <v>3</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>99</v>
+      <c r="B75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2572,212 +2564,201 @@
         <v>4</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
-        <v>5</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>160</v>
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>2</v>
+      <c r="A80" s="3">
+        <v>1</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>1</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>3</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>3</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B91" t="s">
-        <v>183</v>
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>2</v>
+      <c r="A92" s="3">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>1</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>3</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>2</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2AD7AB-8951-4F3D-8646-906F0B6C13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E3780-A3D5-4F9B-A388-D2B49A99AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1872" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="41320" yWindow="6710" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="200">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -822,6 +822,18 @@
   </si>
   <si>
     <t>낚시 추 무게(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다에서 누군가가 잃어버린 장비들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 id(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,25 +1304,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1376,12 +1388,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1403,7 +1415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -1425,12 +1437,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>7</v>
       </c>
@@ -1518,7 +1530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>8</v>
       </c>
@@ -1529,12 +1541,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="11"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>140</v>
       </c>
@@ -1543,7 +1555,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>3</v>
       </c>
@@ -1587,7 +1599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -1609,17 +1621,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>3</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1685,12 +1697,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -1723,7 +1735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>2</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -1775,7 +1787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -1816,7 +1828,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -1827,7 +1839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>4</v>
       </c>
@@ -1847,6 +1859,47 @@
       </c>
       <c r="C59" s="3" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1860,18 +1913,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="49.58203125" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1879,7 +1932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1901,7 +1954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1912,7 +1965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1923,7 +1976,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1934,7 +1987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1945,7 +1998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1953,7 +2006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1975,7 +2028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1986,7 +2039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +2047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2016,7 +2069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2027,7 +2080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2038,7 +2091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -2049,7 +2102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -2060,7 +2113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>6</v>
       </c>
@@ -2071,7 +2124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>7</v>
       </c>
@@ -2082,7 +2135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>8</v>
       </c>
@@ -2093,12 +2146,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -2107,7 +2160,7 @@
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>1</v>
       </c>
@@ -2129,7 +2182,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>2</v>
       </c>
@@ -2140,7 +2193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2148,7 +2201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -2170,7 +2223,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -2181,7 +2234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>3</v>
       </c>
@@ -2192,7 +2245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -2200,7 +2253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -2222,7 +2275,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -2233,7 +2286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>3</v>
       </c>
@@ -2244,7 +2297,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -2255,7 +2308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>5</v>
       </c>
@@ -2266,7 +2319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>6</v>
       </c>
@@ -2277,7 +2330,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -2285,7 +2338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -2307,7 +2360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -2318,7 +2371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -2329,7 +2382,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>4</v>
       </c>
@@ -2340,7 +2393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>5</v>
       </c>
@@ -2351,7 +2404,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -2359,7 +2412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -2381,7 +2434,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -2392,7 +2445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -2403,7 +2456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -2411,7 +2464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -2433,7 +2486,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -2444,7 +2497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>3</v>
       </c>
@@ -2455,7 +2508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -2463,7 +2516,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -2485,7 +2538,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -2496,7 +2549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -2507,7 +2560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
@@ -2515,7 +2568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>1</v>
       </c>
@@ -2537,7 +2590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -2548,7 +2601,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="9">
         <v>3</v>
       </c>
@@ -2559,7 +2612,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="9">
         <v>4</v>
       </c>
@@ -2570,12 +2623,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
@@ -2586,7 +2639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>1</v>
       </c>
@@ -2597,7 +2650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -2608,7 +2661,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>3</v>
       </c>
@@ -2619,12 +2672,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>1</v>
       </c>
@@ -2646,7 +2699,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -2657,7 +2710,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>3</v>
       </c>
@@ -2668,7 +2721,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>175</v>
       </c>
@@ -2676,7 +2729,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>1</v>
       </c>
@@ -2698,7 +2751,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -2709,7 +2762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>3</v>
       </c>
@@ -2720,7 +2773,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
@@ -2728,7 +2781,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -2750,7 +2803,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>2</v>
       </c>

--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E3780-A3D5-4F9B-A388-D2B49A99AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B44EC6-D21B-4271-BB66-1E453FC73E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41320" yWindow="6710" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="201">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,10 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bororong_no_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,10 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish_price_by_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,6 +822,22 @@
   </si>
   <si>
     <t>item_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_price_auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대나 릴과 같은 아이템에 대한 id (PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 카테고리 id (PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1341,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1385,7 +1389,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1412,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1461,7 +1465,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1505,7 +1509,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1516,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1524,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>30</v>
@@ -1535,10 +1539,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1548,10 +1552,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="C26" s="16"/>
     </row>
@@ -1574,7 +1578,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1585,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1650,7 +1654,7 @@
         <v>113</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -1661,7 +1665,7 @@
         <v>114</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -1694,7 +1698,7 @@
         <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -1729,18 +1733,18 @@
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1759,10 +1763,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1770,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1781,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1792,18 +1796,18 @@
         <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -1825,7 +1829,7 @@
         <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -1836,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -1847,7 +1851,7 @@
         <v>114</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -1855,18 +1859,18 @@
         <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -1888,7 +1892,7 @@
         <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -1899,7 +1903,7 @@
         <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1918,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1951,7 +1955,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1959,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1970,10 +1974,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1992,10 +1996,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2107,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>53</v>
@@ -2291,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -2401,7 +2405,7 @@
         <v>72</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -2554,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>91</v>
@@ -2598,7 +2602,7 @@
         <v>94</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -2625,7 +2629,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -2644,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -2655,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -2666,15 +2670,15 @@
         <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -2693,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -2704,10 +2708,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -2715,18 +2719,18 @@
         <v>3</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -2745,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -2756,10 +2760,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -2767,10 +2771,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -2778,7 +2782,7 @@
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -2797,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -2808,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B44EC6-D21B-4271-BB66-1E453FC73E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9952460D-9262-41AF-ADB4-2ED9673C9547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="42000" yWindow="5840" windowWidth="28800" windowHeight="15500" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payment_method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 지불 금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,6 +830,42 @@
   </si>
   <si>
     <t>아이템 카테고리 id (PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience_level_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업을 위해 필요한 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치(좋은 물고기를 잡으면 높은 경험치를 받는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 카테고리 id(PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +898,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,6 +926,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,6 +1026,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1327,13 +1364,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1345,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1389,22 +1426,25 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1416,7 +1456,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1447,13 +1487,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1465,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1509,7 +1549,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1520,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1528,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>30</v>
@@ -1539,10 +1579,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1552,10 +1592,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="16"/>
     </row>
@@ -1578,7 +1618,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1589,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1626,163 +1666,169 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="9">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>132</v>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>117</v>
+      <c r="B41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>120</v>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>149</v>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>145</v>
@@ -1793,117 +1839,180 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="3">
         <v>4</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" t="s">
-        <v>169</v>
+      <c r="B53" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>166</v>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
+        <v>2</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="3">
         <v>4</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="B60" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" t="s">
-        <v>150</v>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C64" t="s">
-        <v>195</v>
+      <c r="C65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="3">
+        <v>2</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1915,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1933,7 +2042,7 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1955,7 +2064,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1963,10 +2072,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1974,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1985,199 +2094,199 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
+      <c r="C15" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
+      <c r="A20" s="9">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
-        <v>8</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>102</v>
@@ -2186,515 +2295,515 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="9">
-        <v>2</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>105</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>65</v>
+      <c r="A41" s="9">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="9">
-        <v>6</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3">
-        <v>5</v>
-      </c>
-      <c r="B51" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="3">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
+      <c r="C60" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="B64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="3">
-        <v>3</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>2</v>
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="3">
-        <v>3</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="3">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2</v>
+      <c r="C72" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="3">
-        <v>2</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>191</v>
+      <c r="A74" s="9">
+        <v>3</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="9">
-        <v>4</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>153</v>
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>2</v>
+      <c r="A79" s="3">
+        <v>1</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="3">
+        <v>1</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="3">
-        <v>3</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>159</v>
@@ -2705,7 +2814,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>161</v>
@@ -2714,39 +2823,39 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="3">
-        <v>3</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>164</v>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="3">
+        <v>1</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C91" s="3" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>174</v>
@@ -2757,65 +2866,54 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="3">
-        <v>3</v>
-      </c>
-      <c r="B94" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="3">
+        <v>1</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C97" s="3" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="3">
-        <v>2</v>
-      </c>
-      <c r="B99" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/product data(기획 데이터).xlsx
+++ b/product data(기획 데이터).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9952460D-9262-41AF-ADB4-2ED9673C9547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63E2AFD-4181-42E8-8044-D77488CCB23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42000" yWindow="5840" windowWidth="28800" windowHeight="15500" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="39120" yWindow="720" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="non_preparations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="211">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,30 +189,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 지불 금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 카테고리 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_category_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 카테고리 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_rod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,10 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장비 id(PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,14 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시대나 릴과 같은 아이템에 대한 id (PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 카테고리 id (PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>experience_level_up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,7 +833,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 카테고리 id(PK)</t>
+    <t>preparation_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대나 릴과 같은 아이템에 대한 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 카테고리 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 id (preparation_id와 preparation_category_id가 기본키, unique key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_category_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 카테고리 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 id(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,12 +920,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,14 +982,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -992,13 +995,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1010,25 +1013,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1364,69 +1367,69 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>127</v>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>128</v>
+      <c r="C7" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1434,50 +1437,50 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+      <c r="C11" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1487,457 +1490,457 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>129</v>
+      <c r="C17" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>135</v>
+      <c r="C21" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>136</v>
+      <c r="C22" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>169</v>
+      <c r="B24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="16"/>
+      <c r="A26" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>148</v>
+      <c r="C28" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <v>2</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>149</v>
+      <c r="C29" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>3</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>4</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>5</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>6</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>206</v>
+      <c r="B33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>204</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3">
-        <v>5</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>133</v>
+      <c r="C41" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="3">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>118</v>
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>132</v>
+      <c r="A46" s="2">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="3">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="3">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>164</v>
+      <c r="C57" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="3">
-        <v>2</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="2">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>127</v>
+      <c r="C58" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>3</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>165</v>
+      <c r="B59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>4</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>166</v>
+      <c r="B60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1949,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -1960,59 +1963,48 @@
         <v>35</v>
       </c>
       <c r="C65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="3">
-        <v>2</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>200</v>
+      <c r="A70" s="2">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2024,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2042,878 +2034,934 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="8">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="8">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="8">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="8">
+        <v>1</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="8">
+        <v>5</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="8">
+        <v>6</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="B69" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="B72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="8">
+        <v>3</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="B85" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="B88" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="2">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
+      <c r="B94" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="2">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
-        <v>6</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
-        <v>7</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="9">
-        <v>8</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="9">
-        <v>2</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="3">
+      <c r="B100" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="2">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="2">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="2">
         <v>3</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="B103" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="9">
-        <v>5</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="9">
-        <v>6</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="3">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="3">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="3">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="3">
-        <v>5</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="3">
-        <v>1</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="3">
-        <v>2</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="3">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="3">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="3">
-        <v>3</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="3">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3">
-        <v>2</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3">
-        <v>3</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="3">
-        <v>1</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="3">
-        <v>2</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="9">
-        <v>3</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="9">
-        <v>4</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="3">
-        <v>1</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="3">
-        <v>2</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="3">
-        <v>3</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="3">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="3">
-        <v>2</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="3">
-        <v>3</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="3">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="3">
-        <v>2</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="3">
-        <v>3</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="3">
-        <v>1</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="3">
-        <v>2</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
